--- a/users/users.xlsx
+++ b/users/users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27809"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D09DCD2D-1F99-4303-A339-343A7FFF41BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6647110A-5C93-402C-BB85-A0ECCA9B3CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>ishim</t>
+    <t>user1</t>
   </si>
   <si>
-    <t>Zay1</t>
+    <t>password1</t>
   </si>
 </sst>
 </file>
@@ -78,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,28 +418,28 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
